--- a/data/case1/11/Plm1_14.xlsx
+++ b/data/case1/11/Plm1_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.078071325549970538</v>
+        <v>-0.096431111944355052</v>
       </c>
       <c r="B1" s="0">
-        <v>0.077769074147795436</v>
+        <v>0.096096837119489464</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.030309249051011733</v>
+        <v>-0.04998835119440237</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.030985419995444019</v>
+        <v>0.048623992764555979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.13391378932159981</v>
+        <v>0.11260483263900412</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.13452915004761579</v>
+        <v>-0.11314374154746787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.1494537695597522</v>
+        <v>-0.17084425943638948</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14874628369913268</v>
+        <v>0.16992783885789464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14274628491783137</v>
+        <v>-0.16392783951030232</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1413346227500023</v>
+        <v>0.16208588450520889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.050416535741859114</v>
+        <v>-0.10938831666776538</v>
       </c>
       <c r="B6" s="0">
-        <v>0.05037679315282162</v>
+        <v>0.10920833069037439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.030376794571626675</v>
+        <v>-0.089208331497967919</v>
       </c>
       <c r="B7" s="0">
-        <v>0.030322162255258078</v>
+        <v>0.088754974750147042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.010322163678813112</v>
+        <v>-0.068754975567644649</v>
       </c>
       <c r="B8" s="0">
-        <v>0.010311691972127335</v>
+        <v>0.06836257598900275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0043116932320579338</v>
+        <v>-0.062362576690385474</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0043087329868853885</v>
+        <v>0.062028468063493492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.00169126575193701</v>
+        <v>-0.056028468776226248</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0016893443118348728</v>
+        <v>0.05598338477007303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0061893430683532813</v>
+        <v>-0.051483385470440624</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0061884798347726644</v>
+        <v>0.051404338034540586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.012188478573516459</v>
+        <v>-0.045404338751324325</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.012203391068622782</v>
+        <v>0.045153933599204166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.018203389810532933</v>
+        <v>-0.039153934328109763</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.018215849553149255</v>
+        <v>0.039086011929055253</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.030215848225561004</v>
+        <v>-0.027086012716592833</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.030257383281442785</v>
+        <v>0.027053538167981728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.036257382028447971</v>
+        <v>-0.021053538903386126</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.036331009554149141</v>
+        <v>0.021028013487283559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015025615324354202</v>
+        <v>-0.015028014225265229</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003675653781912</v>
+        <v>0.015004216383139202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009003676904928426</v>
+        <v>-0.0090042171245769964</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999987126914149</v>
+        <v>0.0089999992303013698</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.098078324464587752</v>
+        <v>-0.036108486605066048</v>
       </c>
       <c r="B18" s="0">
-        <v>0.097934075920463215</v>
+        <v>0.036096262020315351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.031897244828804627</v>
+        <v>-0.027096262691129969</v>
       </c>
       <c r="B19" s="0">
-        <v>0.031777757277009933</v>
+        <v>0.027013245846056577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.022777758545499793</v>
+        <v>-0.018013246522913917</v>
       </c>
       <c r="B20" s="0">
-        <v>0.022762130839845796</v>
+        <v>0.018004248487798691</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041921232391076</v>
+        <v>-0.0090042491655539791</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999987293616357</v>
+        <v>0.0089999993215839069</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093928370578053588</v>
+        <v>-0.093936291586004472</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093622353592413887</v>
+        <v>0.093627412585815861</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084622354853213899</v>
+        <v>-0.084627413267226004</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124148896083106</v>
+        <v>0.084125277573972035</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124150565720164</v>
+        <v>-0.042125278568402535</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998323090537</v>
+        <v>0.041999999000113419</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.084918088258628899</v>
+        <v>-0.046697568513515364</v>
       </c>
       <c r="B25" s="0">
-        <v>0.084796119657298163</v>
+        <v>0.046657750847323598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.078796120910709533</v>
+        <v>-0.040657751524332042</v>
       </c>
       <c r="B26" s="0">
-        <v>0.078641980089813046</v>
+        <v>0.040610958361362748</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082291618353424134</v>
+        <v>-0.034610959039802047</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081246325084896043</v>
+        <v>0.034462324151417256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075246326369076577</v>
+        <v>-0.028462324835929032</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074522393226466477</v>
+        <v>0.02837620675455188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062522394597671394</v>
+        <v>-0.016376207497627249</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062164790031324912</v>
+        <v>0.016353586547738885</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042164791504300858</v>
+        <v>0.0036464126348625392</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042017850165766646</v>
+        <v>-0.0037429277635916414</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027017851590168007</v>
+        <v>0.018190507889581653</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000410953634812</v>
+        <v>-0.018224957167815248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060004124507768708</v>
+        <v>0.039224956342635231</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999998680771057</v>
+        <v>-0.039310346265988727</v>
       </c>
     </row>
   </sheetData>
